--- a/financial_projection_and_sensitivity/CapEx_OpEx_Assumptions_Hazira.xlsx
+++ b/financial_projection_and_sensitivity/CapEx_OpEx_Assumptions_Hazira.xlsx
@@ -8,14 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucymalmud/Desktop/hazira-port/financial_projection_and_sensitivity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67CB4C5-8B11-C14D-BC93-641662EEF647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62078FB3-92DE-AD4F-9C1E-3A652F5B3E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15040" yWindow="1500" windowWidth="13380" windowHeight="15100" activeTab="1" xr2:uid="{0A3B92FD-01E7-5F4B-8CD0-D3F9B1F9A7A2}"/>
+    <workbookView xWindow="12920" yWindow="1260" windowWidth="15420" windowHeight="15100" activeTab="1" xr2:uid="{0A3B92FD-01E7-5F4B-8CD0-D3F9B1F9A7A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Capex" sheetId="1" r:id="rId1"/>
     <sheet name="Assumptions" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="cost_of_debt">Assumptions!$C$9</definedName>
+    <definedName name="crane_depreciation">Assumptions!$C$2</definedName>
+    <definedName name="debt">Assumptions!$C$12</definedName>
+    <definedName name="discount_rate">Assumptions!$C$14</definedName>
+    <definedName name="fixed_opex">Capex!$H$5</definedName>
+    <definedName name="improvement_adj_pp">Assumptions!$C$16</definedName>
+    <definedName name="inflation">Assumptions!$C$7</definedName>
+    <definedName name="loan_tenor">Assumptions!$C$10</definedName>
+    <definedName name="salvage_value">Assumptions!$C$8</definedName>
+    <definedName name="subtotal_capex">Capex!$D$5</definedName>
+    <definedName name="unit_rate_scalar">Assumptions!$C$15</definedName>
+    <definedName name="yard_depreciation">Assumptions!$C$11</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>asset</t>
   </si>
@@ -153,12 +167,6 @@
     <t>assumed CPI</t>
   </si>
   <si>
-    <t>residual_value</t>
-  </si>
-  <si>
-    <t>residual value may not exceed more than 5% of original cost https://taxadda.com/depreciation-rates-as-per-companies-act-2013/t</t>
-  </si>
-  <si>
     <t>State Bank of India term-loan https://sbi.co.in/web/business/information/interest-rates</t>
   </si>
   <si>
@@ -184,6 +192,36 @@
   </si>
   <si>
     <t>industry norm</t>
+  </si>
+  <si>
+    <t>depreciation_method</t>
+  </si>
+  <si>
+    <t>straight_line</t>
+  </si>
+  <si>
+    <t>depreciation expense is distributed evenly over asset's life - industry norm</t>
+  </si>
+  <si>
+    <t>salvage_value</t>
+  </si>
+  <si>
+    <t>the precent of the original value that asset is worth at lifetime - residual value may not exceed more than 5% of original cost https://taxadda.com/depreciation-rates-as-per-companies-act-2013/t</t>
+  </si>
+  <si>
+    <t>discount_rate</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>unit_rate_scalar</t>
+  </si>
+  <si>
+    <t>used for sensitivity analysis</t>
+  </si>
+  <si>
+    <t>improvement_adj_pp</t>
   </si>
 </sst>
 </file>
@@ -585,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569CEC96-FAAB-584A-B78A-CB8AB740BEA6}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="50" workbookViewId="0">
-      <selection sqref="A1:H6"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -737,10 +775,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3465AD54-E969-C748-B909-77AB456D4D8B}">
-  <dimension ref="B1:E12"/>
+  <dimension ref="B1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -851,7 +889,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>0.05</v>
@@ -860,12 +898,12 @@
         <v>35</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>9.5000000000000001E-2</v>
@@ -874,12 +912,12 @@
         <v>35</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -888,12 +926,12 @@
         <v>23</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -902,21 +940,68 @@
         <v>23</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12">
         <v>0.7</v>
       </c>
       <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="C13" t="s">
         <v>48</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>0.1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/financial_projection_and_sensitivity/CapEx_OpEx_Assumptions_Hazira.xlsx
+++ b/financial_projection_and_sensitivity/CapEx_OpEx_Assumptions_Hazira.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucymalmud/Desktop/hazira-port/financial_projection_and_sensitivity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62078FB3-92DE-AD4F-9C1E-3A652F5B3E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFC7FE2-A49E-AD4E-8B7C-2D516AAF9F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12920" yWindow="1260" windowWidth="15420" windowHeight="15100" activeTab="1" xr2:uid="{0A3B92FD-01E7-5F4B-8CD0-D3F9B1F9A7A2}"/>
   </bookViews>
@@ -27,10 +27,9 @@
     <definedName name="loan_tenor">Assumptions!$C$10</definedName>
     <definedName name="salvage_value">Assumptions!$C$8</definedName>
     <definedName name="subtotal_capex">Capex!$D$5</definedName>
-    <definedName name="unit_rate_scalar">Assumptions!$C$15</definedName>
     <definedName name="yard_depreciation">Assumptions!$C$11</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>asset</t>
   </si>
@@ -131,9 +130,6 @@
     <t>effective_tax_rate</t>
   </si>
   <si>
-    <t>in cr</t>
-  </si>
-  <si>
     <t>p. 58 https://www.adaniports.com/-/media/Project/Ports/Investors/FY24-25/Adani-Hazira-Port-Ltd.pdf</t>
   </si>
   <si>
@@ -215,13 +211,7 @@
     <t>standard</t>
   </si>
   <si>
-    <t>unit_rate_scalar</t>
-  </si>
-  <si>
-    <t>used for sensitivity analysis</t>
-  </si>
-  <si>
-    <t>improvement_adj_pp</t>
+    <t>in lakh (converted from cr)</t>
   </si>
 </sst>
 </file>
@@ -280,12 +270,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -623,17 +611,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569CEC96-FAAB-584A-B78A-CB8AB740BEA6}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="C1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="45.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -671,11 +660,12 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>130</v>
+        <f>130*100</f>
+        <v>13000</v>
       </c>
       <c r="D2">
         <f>B2*C2</f>
-        <v>780</v>
+        <v>78000</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -684,10 +674,11 @@
         <v>14</v>
       </c>
       <c r="H2">
-        <v>0.223</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>27</v>
+        <f>0.223*100</f>
+        <v>22.3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -698,11 +689,12 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>85</v>
+        <f>85*100</f>
+        <v>8500</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D4" si="0">B3*C3</f>
-        <v>1190</v>
+        <v>119000</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -714,7 +706,7 @@
         <v>3.42</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -725,11 +717,12 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>60</v>
+        <f>60*100</f>
+        <v>6000</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>6000</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -741,7 +734,7 @@
         <v>13.99</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -750,22 +743,22 @@
       </c>
       <c r="D5">
         <f>SUM(D2:D4)</f>
-        <v>2030</v>
+        <v>203000</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
       </c>
       <c r="H5">
         <f>SUM(H2:H4)</f>
-        <v>17.632999999999999</v>
+        <v>39.71</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -777,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3465AD54-E969-C748-B909-77AB456D4D8B}">
   <dimension ref="B1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -786,7 +779,7 @@
     <col min="2" max="2" width="23.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="47.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="47.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
@@ -799,7 +792,7 @@
       <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -813,8 +806,8 @@
       <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>29</v>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
@@ -827,8 +820,8 @@
       <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -839,85 +832,85 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>0.25</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="3" t="s">
         <v>34</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>0.04</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>0.05</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>51</v>
+        <v>34</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -925,13 +918,13 @@
       <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>41</v>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -939,70 +932,54 @@
       <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>43</v>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>0.7</v>
       </c>
       <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
         <v>47</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>0.1</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>53</v>
+        <v>34</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="E16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
